--- a/Table/Table_xls/技能相关表/c持续性buff表.xlsx
+++ b/Table/Table_xls/技能相关表/c持续性buff表.xlsx
@@ -7704,9 +7704,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -7810,19 +7810,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color indexed="17"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -7832,15 +7831,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7862,10 +7862,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7876,7 +7876,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -7885,17 +7901,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7908,23 +7916,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8025,31 +8025,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8061,13 +8043,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8079,25 +8067,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8109,37 +8079,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8157,37 +8103,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8231,59 +8231,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8314,6 +8266,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -8328,6 +8313,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="514">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -8336,25 +8336,640 @@
     <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -8363,46 +8978,121 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
@@ -8411,762 +9101,396 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9185,33 +9509,90 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9221,6 +9602,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9236,21 +9620,81 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9278,598 +9722,154 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9937,13 +9937,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="65" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="66" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="176" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="178" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="68">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="65">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="66">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -9979,13 +9979,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="65" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="65" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="65" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="66" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="66" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="66" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -10003,7 +10003,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="65" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="66" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -10053,14 +10053,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="65" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="66" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -10079,15 +10079,15 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="176" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="178" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="341" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="176" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="178" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="514">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10098,10 +10098,10 @@
     <cellStyle name="常规 9 2 5" xfId="5"/>
     <cellStyle name="常规 3 14" xfId="6"/>
     <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="常规 7 3" xfId="9"/>
-    <cellStyle name="差" xfId="10" builtinId="27"/>
-    <cellStyle name="差 11 2" xfId="11"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="差 11 2" xfId="9"/>
+    <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
+    <cellStyle name="常规 7 3" xfId="11"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="12" builtinId="39"/>
     <cellStyle name="差 3 2 5" xfId="13"/>
     <cellStyle name="差 10 5" xfId="14"/>
@@ -10110,18 +10110,18 @@
     <cellStyle name="百分比" xfId="17" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="18" builtinId="9"/>
     <cellStyle name="注释" xfId="19" builtinId="10"/>
-    <cellStyle name="常规 6 13" xfId="20"/>
-    <cellStyle name="常规 12 2 2 3" xfId="21"/>
+    <cellStyle name="常规 12 2 2 3" xfId="20"/>
+    <cellStyle name="常规 6 13" xfId="21"/>
     <cellStyle name="常规 6" xfId="22"/>
     <cellStyle name="常规 5 3 2 4" xfId="23"/>
-    <cellStyle name="标题 4" xfId="24" builtinId="19"/>
-    <cellStyle name="常规 5 2 4" xfId="25"/>
-    <cellStyle name="差 9" xfId="26"/>
-    <cellStyle name="差 2 12" xfId="27"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="28" builtinId="36"/>
-    <cellStyle name="常规 12 2 2" xfId="29"/>
-    <cellStyle name="差 3 2 4" xfId="30"/>
-    <cellStyle name="差 10 4" xfId="31"/>
+    <cellStyle name="差 3 2 4" xfId="24"/>
+    <cellStyle name="差 10 4" xfId="25"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="26" builtinId="36"/>
+    <cellStyle name="常规 12 2 2" xfId="27"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="常规 5 2 4" xfId="29"/>
+    <cellStyle name="差 9" xfId="30"/>
+    <cellStyle name="差 2 12" xfId="31"/>
     <cellStyle name="警告文本" xfId="32" builtinId="11"/>
     <cellStyle name="常规 6 5" xfId="33"/>
     <cellStyle name="常规 5 2" xfId="34"/>
@@ -10129,24 +10129,24 @@
     <cellStyle name="解释性文本" xfId="36" builtinId="53"/>
     <cellStyle name="差 6" xfId="37"/>
     <cellStyle name="标题 1" xfId="38" builtinId="16"/>
-    <cellStyle name="差 2 10" xfId="39"/>
+    <cellStyle name="常规 5 2 2" xfId="39"/>
     <cellStyle name="差 7" xfId="40"/>
-    <cellStyle name="常规 5 2 2" xfId="41"/>
+    <cellStyle name="差 2 10" xfId="41"/>
     <cellStyle name="标题 2" xfId="42" builtinId="17"/>
     <cellStyle name="60% - 强调文字颜色 1" xfId="43" builtinId="32"/>
-    <cellStyle name="差 2 11" xfId="44"/>
+    <cellStyle name="常规 5 2 3" xfId="44"/>
     <cellStyle name="差 8" xfId="45"/>
-    <cellStyle name="常规 5 2 3" xfId="46"/>
+    <cellStyle name="差 2 11" xfId="46"/>
     <cellStyle name="标题 3" xfId="47" builtinId="18"/>
     <cellStyle name="60% - 强调文字颜色 4" xfId="48" builtinId="44"/>
-    <cellStyle name="差 10 6" xfId="49"/>
-    <cellStyle name="差 3 2 6" xfId="50"/>
+    <cellStyle name="差 3 2 6" xfId="49"/>
+    <cellStyle name="差 10 6" xfId="50"/>
     <cellStyle name="输出" xfId="51" builtinId="21"/>
     <cellStyle name="计算" xfId="52" builtinId="22"/>
-    <cellStyle name="差 2 9" xfId="53"/>
-    <cellStyle name="检查单元格" xfId="54" builtinId="23"/>
-    <cellStyle name="差 2 2 7" xfId="55"/>
-    <cellStyle name="常规 13 5" xfId="56"/>
+    <cellStyle name="检查单元格" xfId="53" builtinId="23"/>
+    <cellStyle name="差 2 2 7" xfId="54"/>
+    <cellStyle name="常规 13 5" xfId="55"/>
+    <cellStyle name="差 2 9" xfId="56"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="57" builtinId="50"/>
     <cellStyle name="常规 5 2 2 2 2 6" xfId="58"/>
     <cellStyle name="常规 5 4 2 8" xfId="59"/>
@@ -10155,9 +10155,9 @@
     <cellStyle name="链接单元格" xfId="62" builtinId="24"/>
     <cellStyle name="好 3 6" xfId="63"/>
     <cellStyle name="汇总" xfId="64" builtinId="25"/>
-    <cellStyle name="好" xfId="65" builtinId="26"/>
-    <cellStyle name="差 2 3 2" xfId="66"/>
-    <cellStyle name="差 3 4" xfId="67"/>
+    <cellStyle name="差 3 4" xfId="65"/>
+    <cellStyle name="好" xfId="66" builtinId="26"/>
+    <cellStyle name="差 2 3 2" xfId="67"/>
     <cellStyle name="适中" xfId="68" builtinId="28"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="69" builtinId="46"/>
     <cellStyle name="常规 5 2 2 2 2 5" xfId="70"/>
@@ -10183,231 +10183,231 @@
     <cellStyle name="好 9 3" xfId="90"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="91" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="92" builtinId="52"/>
-    <cellStyle name="差 10" xfId="93"/>
-    <cellStyle name="差 3 2" xfId="94"/>
+    <cellStyle name="差 3 2" xfId="93"/>
+    <cellStyle name="差 10" xfId="94"/>
     <cellStyle name="差 11 7" xfId="95"/>
-    <cellStyle name="差 10 2" xfId="96"/>
-    <cellStyle name="差 3 2 2" xfId="97"/>
-    <cellStyle name="差 10 3" xfId="98"/>
-    <cellStyle name="差 3 2 3" xfId="99"/>
-    <cellStyle name="差 11" xfId="100"/>
-    <cellStyle name="差 3 3" xfId="101"/>
+    <cellStyle name="差 3 2 2" xfId="96"/>
+    <cellStyle name="差 10 2" xfId="97"/>
+    <cellStyle name="差 3 2 3" xfId="98"/>
+    <cellStyle name="差 10 3" xfId="99"/>
+    <cellStyle name="差 3 3" xfId="100"/>
+    <cellStyle name="差 11" xfId="101"/>
     <cellStyle name="差 11 3" xfId="102"/>
     <cellStyle name="差 11 4" xfId="103"/>
-    <cellStyle name="差 10 7" xfId="104"/>
-    <cellStyle name="差 3 2 7" xfId="105"/>
+    <cellStyle name="差 3 2 7" xfId="104"/>
+    <cellStyle name="差 10 7" xfId="105"/>
     <cellStyle name="差 11 5" xfId="106"/>
-    <cellStyle name="差 10 8" xfId="107"/>
+    <cellStyle name="常规 2 3 2" xfId="107"/>
     <cellStyle name="差 3 2 8" xfId="108"/>
-    <cellStyle name="常规 2 3 2" xfId="109"/>
+    <cellStyle name="差 10 8" xfId="109"/>
     <cellStyle name="差 11 6" xfId="110"/>
-    <cellStyle name="差 11 8" xfId="111"/>
-    <cellStyle name="常规 2 4 2" xfId="112"/>
+    <cellStyle name="常规 2 4 2" xfId="111"/>
+    <cellStyle name="差 11 8" xfId="112"/>
     <cellStyle name="差 2" xfId="113"/>
-    <cellStyle name="差 2 13" xfId="114"/>
-    <cellStyle name="常规 5 2 5" xfId="115"/>
-    <cellStyle name="差 2 14" xfId="116"/>
-    <cellStyle name="常规 5 2 6" xfId="117"/>
+    <cellStyle name="常规 5 2 5" xfId="114"/>
+    <cellStyle name="差 2 13" xfId="115"/>
+    <cellStyle name="常规 5 2 6" xfId="116"/>
+    <cellStyle name="差 2 14" xfId="117"/>
     <cellStyle name="差 2 15" xfId="118"/>
     <cellStyle name="差 2 2" xfId="119"/>
-    <cellStyle name="差 2 2 2" xfId="120"/>
-    <cellStyle name="差 2 4" xfId="121"/>
-    <cellStyle name="差 2 2 3" xfId="122"/>
-    <cellStyle name="差 2 5" xfId="123"/>
-    <cellStyle name="差 2 6" xfId="124"/>
-    <cellStyle name="差 2 2 4" xfId="125"/>
-    <cellStyle name="常规 13 2" xfId="126"/>
-    <cellStyle name="差 2 7" xfId="127"/>
-    <cellStyle name="差 2 2 5" xfId="128"/>
-    <cellStyle name="常规 13 3" xfId="129"/>
-    <cellStyle name="差 2 8" xfId="130"/>
-    <cellStyle name="差 2 2 6" xfId="131"/>
-    <cellStyle name="常规 13 4" xfId="132"/>
+    <cellStyle name="差 2 4" xfId="120"/>
+    <cellStyle name="差 2 2 2" xfId="121"/>
+    <cellStyle name="差 2 5" xfId="122"/>
+    <cellStyle name="差 2 2 3" xfId="123"/>
+    <cellStyle name="差 2 2 4" xfId="124"/>
+    <cellStyle name="常规 13 2" xfId="125"/>
+    <cellStyle name="差 2 6" xfId="126"/>
+    <cellStyle name="差 2 2 5" xfId="127"/>
+    <cellStyle name="常规 13 3" xfId="128"/>
+    <cellStyle name="差 2 7" xfId="129"/>
+    <cellStyle name="差 2 2 6" xfId="130"/>
+    <cellStyle name="常规 13 4" xfId="131"/>
+    <cellStyle name="差 2 8" xfId="132"/>
     <cellStyle name="差 2 2 8" xfId="133"/>
     <cellStyle name="常规 13 6" xfId="134"/>
     <cellStyle name="差 2 2 9" xfId="135"/>
     <cellStyle name="常规 13 7" xfId="136"/>
     <cellStyle name="差 2 3" xfId="137"/>
-    <cellStyle name="差 2 3 3" xfId="138"/>
-    <cellStyle name="差 3 5" xfId="139"/>
-    <cellStyle name="差 2 3 4" xfId="140"/>
-    <cellStyle name="差 3 6" xfId="141"/>
-    <cellStyle name="差 2 3 5" xfId="142"/>
-    <cellStyle name="差 3 7" xfId="143"/>
-    <cellStyle name="差 2 3 6" xfId="144"/>
+    <cellStyle name="差 3 5" xfId="138"/>
+    <cellStyle name="差 2 3 3" xfId="139"/>
+    <cellStyle name="差 3 6" xfId="140"/>
+    <cellStyle name="差 2 3 4" xfId="141"/>
+    <cellStyle name="差 3 7" xfId="142"/>
+    <cellStyle name="差 2 3 5" xfId="143"/>
+    <cellStyle name="好 2 2" xfId="144"/>
     <cellStyle name="差 3 8" xfId="145"/>
-    <cellStyle name="好 2 2" xfId="146"/>
-    <cellStyle name="差 2 3 7" xfId="147"/>
+    <cellStyle name="差 2 3 6" xfId="146"/>
+    <cellStyle name="好 2 3" xfId="147"/>
     <cellStyle name="差 3 9" xfId="148"/>
-    <cellStyle name="好 2 3" xfId="149"/>
-    <cellStyle name="差 2 3 8" xfId="150"/>
-    <cellStyle name="好 2 4" xfId="151"/>
-    <cellStyle name="差 2 4 2" xfId="152"/>
-    <cellStyle name="差 4 4" xfId="153"/>
-    <cellStyle name="差 2 4 3" xfId="154"/>
-    <cellStyle name="差 4 5" xfId="155"/>
-    <cellStyle name="差 2 4 4" xfId="156"/>
-    <cellStyle name="差 4 6" xfId="157"/>
-    <cellStyle name="差 4 7" xfId="158"/>
-    <cellStyle name="差 2 4 5" xfId="159"/>
-    <cellStyle name="常规 5 2 2 2 2" xfId="160"/>
-    <cellStyle name="差 2 4 6" xfId="161"/>
+    <cellStyle name="差 2 3 7" xfId="149"/>
+    <cellStyle name="好 2 4" xfId="150"/>
+    <cellStyle name="差 2 3 8" xfId="151"/>
+    <cellStyle name="差 4 4" xfId="152"/>
+    <cellStyle name="差 2 4 2" xfId="153"/>
+    <cellStyle name="差 4 5" xfId="154"/>
+    <cellStyle name="差 2 4 3" xfId="155"/>
+    <cellStyle name="差 4 6" xfId="156"/>
+    <cellStyle name="差 2 4 4" xfId="157"/>
+    <cellStyle name="差 2 4 5" xfId="158"/>
+    <cellStyle name="常规 5 2 2 2 2" xfId="159"/>
+    <cellStyle name="差 4 7" xfId="160"/>
+    <cellStyle name="好 3 2" xfId="161"/>
     <cellStyle name="差 4 8" xfId="162"/>
-    <cellStyle name="好 3 2" xfId="163"/>
-    <cellStyle name="差 2 4 7" xfId="164"/>
+    <cellStyle name="差 2 4 6" xfId="163"/>
+    <cellStyle name="好 3 3" xfId="164"/>
     <cellStyle name="差 4 9" xfId="165"/>
-    <cellStyle name="好 3 3" xfId="166"/>
-    <cellStyle name="差 2 4 8" xfId="167"/>
-    <cellStyle name="好 3 4" xfId="168"/>
-    <cellStyle name="差 2 5 2" xfId="169"/>
-    <cellStyle name="差 5 4" xfId="170"/>
-    <cellStyle name="差 2 5 3" xfId="171"/>
-    <cellStyle name="差 5 5" xfId="172"/>
-    <cellStyle name="差 2 5 4" xfId="173"/>
+    <cellStyle name="差 2 4 7" xfId="166"/>
+    <cellStyle name="好 3 4" xfId="167"/>
+    <cellStyle name="差 2 4 8" xfId="168"/>
+    <cellStyle name="差 5 4" xfId="169"/>
+    <cellStyle name="差 2 5 2" xfId="170"/>
+    <cellStyle name="差 5 5" xfId="171"/>
+    <cellStyle name="差 2 5 3" xfId="172"/>
+    <cellStyle name="常规 10" xfId="173"/>
     <cellStyle name="差 5 6" xfId="174"/>
-    <cellStyle name="常规 10" xfId="175"/>
-    <cellStyle name="差 2 5 5" xfId="176"/>
+    <cellStyle name="差 2 5 4" xfId="175"/>
+    <cellStyle name="常规 11" xfId="176"/>
     <cellStyle name="差 5 7" xfId="177"/>
-    <cellStyle name="常规 11" xfId="178"/>
-    <cellStyle name="差 2 5 6" xfId="179"/>
-    <cellStyle name="差 5 8" xfId="180"/>
-    <cellStyle name="常规 12" xfId="181"/>
-    <cellStyle name="好 4 2" xfId="182"/>
-    <cellStyle name="差 2 5 7" xfId="183"/>
-    <cellStyle name="差 5 9" xfId="184"/>
-    <cellStyle name="常规 13" xfId="185"/>
-    <cellStyle name="好 4 3" xfId="186"/>
-    <cellStyle name="差 2 5 8" xfId="187"/>
-    <cellStyle name="常规 14" xfId="188"/>
-    <cellStyle name="好 4 4" xfId="189"/>
-    <cellStyle name="差 2 6 2" xfId="190"/>
+    <cellStyle name="差 2 5 5" xfId="178"/>
+    <cellStyle name="常规 12" xfId="179"/>
+    <cellStyle name="好 4 2" xfId="180"/>
+    <cellStyle name="差 5 8" xfId="181"/>
+    <cellStyle name="差 2 5 6" xfId="182"/>
+    <cellStyle name="常规 13" xfId="183"/>
+    <cellStyle name="好 4 3" xfId="184"/>
+    <cellStyle name="差 5 9" xfId="185"/>
+    <cellStyle name="差 2 5 7" xfId="186"/>
+    <cellStyle name="常规 14" xfId="187"/>
+    <cellStyle name="好 4 4" xfId="188"/>
+    <cellStyle name="差 2 5 8" xfId="189"/>
+    <cellStyle name="常规 13 2 2" xfId="190"/>
     <cellStyle name="差 6 4" xfId="191"/>
-    <cellStyle name="常规 13 2 2" xfId="192"/>
-    <cellStyle name="差 2 6 3" xfId="193"/>
+    <cellStyle name="差 2 6 2" xfId="192"/>
+    <cellStyle name="常规 13 2 3" xfId="193"/>
     <cellStyle name="差 6 5" xfId="194"/>
-    <cellStyle name="常规 13 2 3" xfId="195"/>
-    <cellStyle name="差 6 6" xfId="196"/>
-    <cellStyle name="常规 13 2 4" xfId="197"/>
-    <cellStyle name="差 2 6 4" xfId="198"/>
-    <cellStyle name="常规 17 2" xfId="199"/>
-    <cellStyle name="差 2 6 5" xfId="200"/>
+    <cellStyle name="差 2 6 3" xfId="195"/>
+    <cellStyle name="差 2 6 4" xfId="196"/>
+    <cellStyle name="常规 17 2" xfId="197"/>
+    <cellStyle name="常规 13 2 4" xfId="198"/>
+    <cellStyle name="差 6 6" xfId="199"/>
+    <cellStyle name="常规 13 2 5" xfId="200"/>
     <cellStyle name="差 6 7" xfId="201"/>
-    <cellStyle name="常规 13 2 5" xfId="202"/>
-    <cellStyle name="差 2 6 6" xfId="203"/>
-    <cellStyle name="差 6 8" xfId="204"/>
-    <cellStyle name="常规 13 2 6" xfId="205"/>
-    <cellStyle name="好 5 2" xfId="206"/>
-    <cellStyle name="差 2 6 7" xfId="207"/>
-    <cellStyle name="差 6 9" xfId="208"/>
-    <cellStyle name="常规 13 2 7" xfId="209"/>
-    <cellStyle name="好 5 3" xfId="210"/>
-    <cellStyle name="差 2 6 8" xfId="211"/>
+    <cellStyle name="差 2 6 5" xfId="202"/>
+    <cellStyle name="好 5 2" xfId="203"/>
+    <cellStyle name="常规 13 2 6" xfId="204"/>
+    <cellStyle name="差 6 8" xfId="205"/>
+    <cellStyle name="差 2 6 6" xfId="206"/>
+    <cellStyle name="好 5 3" xfId="207"/>
+    <cellStyle name="常规 13 2 7" xfId="208"/>
+    <cellStyle name="差 6 9" xfId="209"/>
+    <cellStyle name="差 2 6 7" xfId="210"/>
+    <cellStyle name="好 5 4" xfId="211"/>
     <cellStyle name="常规 13 2 8" xfId="212"/>
-    <cellStyle name="好 5 4" xfId="213"/>
-    <cellStyle name="差 7 4" xfId="214"/>
+    <cellStyle name="差 2 6 8" xfId="213"/>
+    <cellStyle name="常规 5 2 2 4" xfId="214"/>
     <cellStyle name="差 2 7 2" xfId="215"/>
     <cellStyle name="常规 2 3 8" xfId="216"/>
-    <cellStyle name="常规 5 2 2 4" xfId="217"/>
-    <cellStyle name="差 7 5" xfId="218"/>
+    <cellStyle name="差 7 4" xfId="217"/>
+    <cellStyle name="常规 5 2 2 5" xfId="218"/>
     <cellStyle name="差 2 7 3" xfId="219"/>
     <cellStyle name="常规 2 3 9" xfId="220"/>
-    <cellStyle name="常规 5 2 2 5" xfId="221"/>
-    <cellStyle name="差 2 7 4" xfId="222"/>
+    <cellStyle name="差 7 5" xfId="221"/>
+    <cellStyle name="常规 5 2 2 6" xfId="222"/>
     <cellStyle name="差 7 6" xfId="223"/>
-    <cellStyle name="常规 5 2 2 6" xfId="224"/>
-    <cellStyle name="差 2 7 5" xfId="225"/>
-    <cellStyle name="差 7 7" xfId="226"/>
-    <cellStyle name="差 2 7 6" xfId="227"/>
+    <cellStyle name="差 2 7 4" xfId="224"/>
+    <cellStyle name="差 7 7" xfId="225"/>
+    <cellStyle name="差 2 7 5" xfId="226"/>
+    <cellStyle name="好 6 2" xfId="227"/>
     <cellStyle name="差 7 8" xfId="228"/>
-    <cellStyle name="好 6 2" xfId="229"/>
-    <cellStyle name="差 2 7 7" xfId="230"/>
+    <cellStyle name="差 2 7 6" xfId="229"/>
+    <cellStyle name="好 6 3" xfId="230"/>
     <cellStyle name="差 7 9" xfId="231"/>
-    <cellStyle name="好 6 3" xfId="232"/>
-    <cellStyle name="差 2 7 8" xfId="233"/>
-    <cellStyle name="好 6 4" xfId="234"/>
+    <cellStyle name="差 2 7 7" xfId="232"/>
+    <cellStyle name="好 6 4" xfId="233"/>
+    <cellStyle name="差 2 7 8" xfId="234"/>
     <cellStyle name="差 3" xfId="235"/>
     <cellStyle name="差 3 10" xfId="236"/>
     <cellStyle name="常规 17 2 8" xfId="237"/>
     <cellStyle name="差 3 11" xfId="238"/>
-    <cellStyle name="差 3 12" xfId="239"/>
-    <cellStyle name="差 4 2" xfId="240"/>
-    <cellStyle name="差 3 13" xfId="241"/>
-    <cellStyle name="差 4 3" xfId="242"/>
-    <cellStyle name="差 3 2 9" xfId="243"/>
-    <cellStyle name="常规 2 3 3" xfId="244"/>
+    <cellStyle name="差 4 2" xfId="239"/>
+    <cellStyle name="差 3 12" xfId="240"/>
+    <cellStyle name="差 4 3" xfId="241"/>
+    <cellStyle name="差 3 13" xfId="242"/>
+    <cellStyle name="常规 2 3 3" xfId="243"/>
+    <cellStyle name="差 3 2 9" xfId="244"/>
     <cellStyle name="差 4" xfId="245"/>
     <cellStyle name="差 5" xfId="246"/>
     <cellStyle name="差 5 2" xfId="247"/>
     <cellStyle name="差 5 3" xfId="248"/>
     <cellStyle name="差 6 2" xfId="249"/>
     <cellStyle name="差 6 3" xfId="250"/>
-    <cellStyle name="差 7 2" xfId="251"/>
+    <cellStyle name="常规 5 2 2 2" xfId="251"/>
     <cellStyle name="常规 2 3 6" xfId="252"/>
-    <cellStyle name="常规 5 2 2 2" xfId="253"/>
-    <cellStyle name="差 7 3" xfId="254"/>
+    <cellStyle name="差 7 2" xfId="253"/>
+    <cellStyle name="常规 5 2 2 3" xfId="254"/>
     <cellStyle name="常规 2 3 7" xfId="255"/>
-    <cellStyle name="常规 5 2 2 3" xfId="256"/>
-    <cellStyle name="差 8 2" xfId="257"/>
-    <cellStyle name="常规 2 4 6" xfId="258"/>
+    <cellStyle name="差 7 3" xfId="256"/>
+    <cellStyle name="常规 2 4 6" xfId="257"/>
+    <cellStyle name="差 8 2" xfId="258"/>
     <cellStyle name="差 8 3" xfId="259"/>
     <cellStyle name="差 8 4" xfId="260"/>
     <cellStyle name="差 8 5" xfId="261"/>
     <cellStyle name="差 8 6" xfId="262"/>
     <cellStyle name="差 8 7" xfId="263"/>
-    <cellStyle name="差 8 8" xfId="264"/>
-    <cellStyle name="好 7 2" xfId="265"/>
-    <cellStyle name="差 8 9" xfId="266"/>
-    <cellStyle name="好 7 3" xfId="267"/>
+    <cellStyle name="好 7 2" xfId="264"/>
+    <cellStyle name="差 8 8" xfId="265"/>
+    <cellStyle name="好 7 3" xfId="266"/>
+    <cellStyle name="差 8 9" xfId="267"/>
     <cellStyle name="差 9 2" xfId="268"/>
     <cellStyle name="差 9 3" xfId="269"/>
     <cellStyle name="差 9 4" xfId="270"/>
     <cellStyle name="差 9 5" xfId="271"/>
     <cellStyle name="差 9 6" xfId="272"/>
     <cellStyle name="差 9 7" xfId="273"/>
-    <cellStyle name="差 9 8" xfId="274"/>
-    <cellStyle name="好 8 2" xfId="275"/>
-    <cellStyle name="常规 11 2" xfId="276"/>
-    <cellStyle name="常规 5 5 2 4" xfId="277"/>
+    <cellStyle name="好 8 2" xfId="274"/>
+    <cellStyle name="差 9 8" xfId="275"/>
+    <cellStyle name="常规 5 5 2 4" xfId="276"/>
+    <cellStyle name="常规 11 2" xfId="277"/>
     <cellStyle name="常规 11 2 2" xfId="278"/>
     <cellStyle name="常规 11 2 2 2" xfId="279"/>
     <cellStyle name="常规 11 2 2 3" xfId="280"/>
     <cellStyle name="常规 11 2 2 4" xfId="281"/>
     <cellStyle name="常规 11 2 2 5" xfId="282"/>
     <cellStyle name="常规 11 2 2 6" xfId="283"/>
-    <cellStyle name="常规 11 2 2 7" xfId="284"/>
-    <cellStyle name="常规 12 2" xfId="285"/>
-    <cellStyle name="常规 11 2 2 8" xfId="286"/>
-    <cellStyle name="常规 12 3" xfId="287"/>
-    <cellStyle name="常规 11 3" xfId="288"/>
+    <cellStyle name="常规 12 2" xfId="284"/>
+    <cellStyle name="常规 11 2 2 7" xfId="285"/>
+    <cellStyle name="常规 12 3" xfId="286"/>
+    <cellStyle name="常规 11 2 2 8" xfId="287"/>
+    <cellStyle name="常规 5 5 2 5" xfId="288"/>
     <cellStyle name="常规 2 3 2 2" xfId="289"/>
-    <cellStyle name="常规 5 5 2 5" xfId="290"/>
-    <cellStyle name="常规 11 4" xfId="291"/>
+    <cellStyle name="常规 11 3" xfId="290"/>
+    <cellStyle name="常规 5 5 2 6" xfId="291"/>
     <cellStyle name="常规 2 3 2 3" xfId="292"/>
-    <cellStyle name="常规 5 5 2 6" xfId="293"/>
-    <cellStyle name="常规 11 5" xfId="294"/>
+    <cellStyle name="常规 11 4" xfId="293"/>
+    <cellStyle name="常规 5 5 2 7" xfId="294"/>
     <cellStyle name="常规 2 3 2 4" xfId="295"/>
-    <cellStyle name="常规 5 5 2 7" xfId="296"/>
-    <cellStyle name="常规 11 6" xfId="297"/>
+    <cellStyle name="常规 11 5" xfId="296"/>
+    <cellStyle name="常规 5 5 2 8" xfId="297"/>
     <cellStyle name="常规 2 3 2 5" xfId="298"/>
-    <cellStyle name="常规 5 5 2 8" xfId="299"/>
-    <cellStyle name="常规 12 2 2 2" xfId="300"/>
+    <cellStyle name="常规 11 6" xfId="299"/>
+    <cellStyle name="常规 5 3 2 3" xfId="300"/>
     <cellStyle name="常规 5" xfId="301"/>
-    <cellStyle name="常规 5 3 2 3" xfId="302"/>
-    <cellStyle name="常规 5 3 2 5" xfId="303"/>
+    <cellStyle name="常规 12 2 2 2" xfId="302"/>
+    <cellStyle name="常规 7" xfId="303"/>
     <cellStyle name="常规 12 2 2 4" xfId="304"/>
     <cellStyle name="常规 6 14" xfId="305"/>
-    <cellStyle name="常规 7" xfId="306"/>
-    <cellStyle name="常规 5 3 2 6" xfId="307"/>
+    <cellStyle name="常规 5 3 2 5" xfId="306"/>
+    <cellStyle name="常规 8" xfId="307"/>
     <cellStyle name="常规 12 2 2 5" xfId="308"/>
     <cellStyle name="常规 6 15" xfId="309"/>
-    <cellStyle name="常规 8" xfId="310"/>
-    <cellStyle name="常规 5 3 2 7" xfId="311"/>
+    <cellStyle name="常规 5 3 2 6" xfId="310"/>
+    <cellStyle name="常规 9" xfId="311"/>
     <cellStyle name="常规 12 2 2 6" xfId="312"/>
     <cellStyle name="常规 6 16" xfId="313"/>
-    <cellStyle name="常规 9" xfId="314"/>
-    <cellStyle name="常规 5 3 2 8" xfId="315"/>
-    <cellStyle name="常规 12 2 2 7" xfId="316"/>
-    <cellStyle name="常规 6 17" xfId="317"/>
+    <cellStyle name="常规 5 3 2 7" xfId="314"/>
+    <cellStyle name="常规 12 2 2 7" xfId="315"/>
+    <cellStyle name="常规 6 17" xfId="316"/>
+    <cellStyle name="常规 5 3 2 8" xfId="317"/>
     <cellStyle name="常规 12 2 2 8" xfId="318"/>
     <cellStyle name="常规 6 18" xfId="319"/>
     <cellStyle name="常规 12 4" xfId="320"/>
@@ -10467,21 +10467,21 @@
     <cellStyle name="输入 2" xfId="374"/>
     <cellStyle name="常规 2 9" xfId="375"/>
     <cellStyle name="输入 3" xfId="376"/>
-    <cellStyle name="常规 3 10" xfId="377"/>
-    <cellStyle name="常规 6 6" xfId="378"/>
-    <cellStyle name="常规 3 11" xfId="379"/>
+    <cellStyle name="常规 6 6" xfId="377"/>
+    <cellStyle name="常规 3 10" xfId="378"/>
+    <cellStyle name="常规 9 2 2" xfId="379"/>
     <cellStyle name="常规 6 7" xfId="380"/>
-    <cellStyle name="常规 9 2 2" xfId="381"/>
-    <cellStyle name="常规 3 12" xfId="382"/>
+    <cellStyle name="常规 3 11" xfId="381"/>
+    <cellStyle name="常规 9 2 3" xfId="382"/>
     <cellStyle name="常规 6 8" xfId="383"/>
-    <cellStyle name="常规 9 2 3" xfId="384"/>
-    <cellStyle name="常规 3 13" xfId="385"/>
+    <cellStyle name="常规 3 12" xfId="384"/>
+    <cellStyle name="常规 9 2 4" xfId="385"/>
     <cellStyle name="常规 6 9" xfId="386"/>
-    <cellStyle name="常规 9 2 4" xfId="387"/>
-    <cellStyle name="常规 3 15" xfId="388"/>
-    <cellStyle name="常规 9 2 6" xfId="389"/>
-    <cellStyle name="常规 3 16" xfId="390"/>
-    <cellStyle name="常规 9 2 7" xfId="391"/>
+    <cellStyle name="常规 3 13" xfId="387"/>
+    <cellStyle name="常规 9 2 6" xfId="388"/>
+    <cellStyle name="常规 3 15" xfId="389"/>
+    <cellStyle name="常规 9 2 7" xfId="390"/>
+    <cellStyle name="常规 3 16" xfId="391"/>
     <cellStyle name="常规 3 2" xfId="392"/>
     <cellStyle name="好 11 2" xfId="393"/>
     <cellStyle name="常规 3 3" xfId="394"/>
@@ -10497,11 +10497,11 @@
     <cellStyle name="常规 3 8" xfId="404"/>
     <cellStyle name="好 11 8" xfId="405"/>
     <cellStyle name="常规 3 9" xfId="406"/>
-    <cellStyle name="常规 4" xfId="407"/>
+    <cellStyle name="常规 6 11" xfId="407"/>
     <cellStyle name="常规 5 3 2 2" xfId="408"/>
-    <cellStyle name="常规 6 11" xfId="409"/>
-    <cellStyle name="常规 5 10" xfId="410"/>
-    <cellStyle name="好 5 8" xfId="411"/>
+    <cellStyle name="常规 4" xfId="409"/>
+    <cellStyle name="好 5 8" xfId="410"/>
+    <cellStyle name="常规 5 10" xfId="411"/>
     <cellStyle name="常规 5 2 2 2 2 2" xfId="412"/>
     <cellStyle name="常规 5 4 2 4" xfId="413"/>
     <cellStyle name="常规 5 2 2 2 2 3" xfId="414"/>
@@ -10512,23 +10512,23 @@
     <cellStyle name="常规 5 3 2" xfId="419"/>
     <cellStyle name="常规 5 4" xfId="420"/>
     <cellStyle name="常规 5 4 2" xfId="421"/>
-    <cellStyle name="常规 5 4 2 2" xfId="422"/>
-    <cellStyle name="常规 5 8" xfId="423"/>
-    <cellStyle name="常规 5 4 2 3" xfId="424"/>
-    <cellStyle name="常规 5 9" xfId="425"/>
+    <cellStyle name="常规 5 8" xfId="422"/>
+    <cellStyle name="常规 5 4 2 2" xfId="423"/>
+    <cellStyle name="常规 5 9" xfId="424"/>
+    <cellStyle name="常规 5 4 2 3" xfId="425"/>
     <cellStyle name="常规 5 5" xfId="426"/>
     <cellStyle name="常规 5 5 2" xfId="427"/>
     <cellStyle name="常规 5 5 2 2" xfId="428"/>
     <cellStyle name="常规 5 5 2 3" xfId="429"/>
     <cellStyle name="常规 5 6" xfId="430"/>
     <cellStyle name="常规 5 7" xfId="431"/>
-    <cellStyle name="常规 6 10" xfId="432"/>
-    <cellStyle name="好 11" xfId="433"/>
+    <cellStyle name="好 11" xfId="432"/>
+    <cellStyle name="常规 6 10" xfId="433"/>
     <cellStyle name="常规 6 19" xfId="434"/>
-    <cellStyle name="常规 6 2" xfId="435"/>
-    <cellStyle name="常规 7 18" xfId="436"/>
-    <cellStyle name="常规 6 3" xfId="437"/>
-    <cellStyle name="常规 7 19" xfId="438"/>
+    <cellStyle name="常规 7 18" xfId="435"/>
+    <cellStyle name="常规 6 2" xfId="436"/>
+    <cellStyle name="常规 7 19" xfId="437"/>
+    <cellStyle name="常规 6 3" xfId="438"/>
     <cellStyle name="常规 6 4" xfId="439"/>
     <cellStyle name="常规 7 10" xfId="440"/>
     <cellStyle name="常规 7 11" xfId="441"/>
@@ -10596,10 +10596,10 @@
     <cellStyle name="好 9 6" xfId="503"/>
     <cellStyle name="好 9 7" xfId="504"/>
     <cellStyle name="好 9 8" xfId="505"/>
-    <cellStyle name="输入 10" xfId="506"/>
-    <cellStyle name="输入 5" xfId="507"/>
-    <cellStyle name="输入 11" xfId="508"/>
-    <cellStyle name="输入 6" xfId="509"/>
+    <cellStyle name="输入 5" xfId="506"/>
+    <cellStyle name="输入 10" xfId="507"/>
+    <cellStyle name="输入 6" xfId="508"/>
+    <cellStyle name="输入 11" xfId="509"/>
     <cellStyle name="输入 4" xfId="510"/>
     <cellStyle name="输入 7" xfId="511"/>
     <cellStyle name="输入 8" xfId="512"/>
@@ -10951,11 +10951,11 @@
   <dimension ref="A1:AY504"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J473" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I80" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q503" sqref="Q503"/>
+      <selection pane="bottomRight" activeCell="A114" sqref="$A114:$XFD114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -16340,7 +16340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" s="3" customFormat="1" ht="13.5" spans="1:30">
+    <row r="77" s="3" customFormat="1" ht="14.25" spans="1:30">
       <c r="A77" s="3">
         <v>509032</v>
       </c>
@@ -16382,6 +16382,9 @@
       </c>
       <c r="P77" s="3" t="s">
         <v>48</v>
+      </c>
+      <c r="R77" s="24">
+        <v>510143</v>
       </c>
       <c r="T77" s="3">
         <v>-1</v>

--- a/Table/Table_xls/技能相关表/c持续性buff表.xlsx
+++ b/Table/Table_xls/技能相关表/c持续性buff表.xlsx
@@ -8891,10 +8891,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -8979,6 +8979,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
@@ -8986,8 +8994,32 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8995,6 +9027,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9023,43 +9070,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -9076,23 +9086,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -9100,11 +9094,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -9193,7 +9193,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9205,7 +9205,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9217,7 +9295,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9229,31 +9319,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9265,55 +9331,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9325,31 +9349,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9395,59 +9395,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9470,8 +9420,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9490,6 +9464,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="514">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -9498,7 +9498,7 @@
     <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -9516,19 +9516,52 @@
     <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9537,34 +9570,586 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
@@ -9573,10 +10158,49 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
@@ -9588,25 +10212,58 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9615,720 +10272,387 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10347,33 +10671,90 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10383,6 +10764,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10398,21 +10782,81 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10440,598 +10884,154 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11096,7 +11096,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="65" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="66" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -11106,11 +11106,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="176" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="178" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -11132,11 +11132,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="176" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="178" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="68">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="65">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="66">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -11154,13 +11154,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="65" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="65" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="65" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="66" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="66" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="66" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -11172,14 +11172,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="65" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="66" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="65" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="66" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -11220,7 +11220,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
@@ -11233,10 +11233,10 @@
     <cellStyle name="常规 9 2 5" xfId="5"/>
     <cellStyle name="常规 3 14" xfId="6"/>
     <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="常规 7 3" xfId="9"/>
-    <cellStyle name="差" xfId="10" builtinId="27"/>
-    <cellStyle name="差 11 2" xfId="11"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="差 11 2" xfId="9"/>
+    <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
+    <cellStyle name="常规 7 3" xfId="11"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="12" builtinId="39"/>
     <cellStyle name="差 3 2 5" xfId="13"/>
     <cellStyle name="差 10 5" xfId="14"/>
@@ -11245,18 +11245,18 @@
     <cellStyle name="百分比" xfId="17" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="18" builtinId="9"/>
     <cellStyle name="注释" xfId="19" builtinId="10"/>
-    <cellStyle name="常规 6 13" xfId="20"/>
-    <cellStyle name="常规 12 2 2 3" xfId="21"/>
+    <cellStyle name="常规 12 2 2 3" xfId="20"/>
+    <cellStyle name="常规 6 13" xfId="21"/>
     <cellStyle name="常规 6" xfId="22"/>
     <cellStyle name="常规 5 3 2 4" xfId="23"/>
-    <cellStyle name="标题 4" xfId="24" builtinId="19"/>
-    <cellStyle name="常规 5 2 4" xfId="25"/>
-    <cellStyle name="差 9" xfId="26"/>
-    <cellStyle name="差 2 12" xfId="27"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="28" builtinId="36"/>
-    <cellStyle name="常规 12 2 2" xfId="29"/>
-    <cellStyle name="差 3 2 4" xfId="30"/>
-    <cellStyle name="差 10 4" xfId="31"/>
+    <cellStyle name="差 3 2 4" xfId="24"/>
+    <cellStyle name="差 10 4" xfId="25"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="26" builtinId="36"/>
+    <cellStyle name="常规 12 2 2" xfId="27"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="常规 5 2 4" xfId="29"/>
+    <cellStyle name="差 9" xfId="30"/>
+    <cellStyle name="差 2 12" xfId="31"/>
     <cellStyle name="警告文本" xfId="32" builtinId="11"/>
     <cellStyle name="常规 6 5" xfId="33"/>
     <cellStyle name="常规 5 2" xfId="34"/>
@@ -11264,24 +11264,24 @@
     <cellStyle name="解释性文本" xfId="36" builtinId="53"/>
     <cellStyle name="差 6" xfId="37"/>
     <cellStyle name="标题 1" xfId="38" builtinId="16"/>
-    <cellStyle name="差 2 10" xfId="39"/>
+    <cellStyle name="常规 5 2 2" xfId="39"/>
     <cellStyle name="差 7" xfId="40"/>
-    <cellStyle name="常规 5 2 2" xfId="41"/>
+    <cellStyle name="差 2 10" xfId="41"/>
     <cellStyle name="标题 2" xfId="42" builtinId="17"/>
     <cellStyle name="60% - 强调文字颜色 1" xfId="43" builtinId="32"/>
-    <cellStyle name="差 2 11" xfId="44"/>
+    <cellStyle name="常规 5 2 3" xfId="44"/>
     <cellStyle name="差 8" xfId="45"/>
-    <cellStyle name="常规 5 2 3" xfId="46"/>
+    <cellStyle name="差 2 11" xfId="46"/>
     <cellStyle name="标题 3" xfId="47" builtinId="18"/>
     <cellStyle name="60% - 强调文字颜色 4" xfId="48" builtinId="44"/>
-    <cellStyle name="差 10 6" xfId="49"/>
-    <cellStyle name="差 3 2 6" xfId="50"/>
+    <cellStyle name="差 3 2 6" xfId="49"/>
+    <cellStyle name="差 10 6" xfId="50"/>
     <cellStyle name="输出" xfId="51" builtinId="21"/>
     <cellStyle name="计算" xfId="52" builtinId="22"/>
-    <cellStyle name="差 2 9" xfId="53"/>
-    <cellStyle name="检查单元格" xfId="54" builtinId="23"/>
-    <cellStyle name="差 2 2 7" xfId="55"/>
-    <cellStyle name="常规 13 5" xfId="56"/>
+    <cellStyle name="检查单元格" xfId="53" builtinId="23"/>
+    <cellStyle name="差 2 2 7" xfId="54"/>
+    <cellStyle name="常规 13 5" xfId="55"/>
+    <cellStyle name="差 2 9" xfId="56"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="57" builtinId="50"/>
     <cellStyle name="常规 5 2 2 2 2 6" xfId="58"/>
     <cellStyle name="常规 5 4 2 8" xfId="59"/>
@@ -11290,9 +11290,9 @@
     <cellStyle name="链接单元格" xfId="62" builtinId="24"/>
     <cellStyle name="好 3 6" xfId="63"/>
     <cellStyle name="汇总" xfId="64" builtinId="25"/>
-    <cellStyle name="好" xfId="65" builtinId="26"/>
-    <cellStyle name="差 2 3 2" xfId="66"/>
-    <cellStyle name="差 3 4" xfId="67"/>
+    <cellStyle name="差 3 4" xfId="65"/>
+    <cellStyle name="好" xfId="66" builtinId="26"/>
+    <cellStyle name="差 2 3 2" xfId="67"/>
     <cellStyle name="适中" xfId="68" builtinId="28"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="69" builtinId="46"/>
     <cellStyle name="常规 5 2 2 2 2 5" xfId="70"/>
@@ -11318,231 +11318,231 @@
     <cellStyle name="好 9 3" xfId="90"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="91" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="92" builtinId="52"/>
-    <cellStyle name="差 10" xfId="93"/>
-    <cellStyle name="差 3 2" xfId="94"/>
+    <cellStyle name="差 3 2" xfId="93"/>
+    <cellStyle name="差 10" xfId="94"/>
     <cellStyle name="差 11 7" xfId="95"/>
-    <cellStyle name="差 10 2" xfId="96"/>
-    <cellStyle name="差 3 2 2" xfId="97"/>
-    <cellStyle name="差 10 3" xfId="98"/>
-    <cellStyle name="差 3 2 3" xfId="99"/>
-    <cellStyle name="差 11" xfId="100"/>
-    <cellStyle name="差 3 3" xfId="101"/>
+    <cellStyle name="差 3 2 2" xfId="96"/>
+    <cellStyle name="差 10 2" xfId="97"/>
+    <cellStyle name="差 3 2 3" xfId="98"/>
+    <cellStyle name="差 10 3" xfId="99"/>
+    <cellStyle name="差 3 3" xfId="100"/>
+    <cellStyle name="差 11" xfId="101"/>
     <cellStyle name="差 11 3" xfId="102"/>
     <cellStyle name="差 11 4" xfId="103"/>
-    <cellStyle name="差 10 7" xfId="104"/>
-    <cellStyle name="差 3 2 7" xfId="105"/>
+    <cellStyle name="差 3 2 7" xfId="104"/>
+    <cellStyle name="差 10 7" xfId="105"/>
     <cellStyle name="差 11 5" xfId="106"/>
-    <cellStyle name="差 10 8" xfId="107"/>
+    <cellStyle name="常规 2 3 2" xfId="107"/>
     <cellStyle name="差 3 2 8" xfId="108"/>
-    <cellStyle name="常规 2 3 2" xfId="109"/>
+    <cellStyle name="差 10 8" xfId="109"/>
     <cellStyle name="差 11 6" xfId="110"/>
-    <cellStyle name="差 11 8" xfId="111"/>
-    <cellStyle name="常规 2 4 2" xfId="112"/>
+    <cellStyle name="常规 2 4 2" xfId="111"/>
+    <cellStyle name="差 11 8" xfId="112"/>
     <cellStyle name="差 2" xfId="113"/>
-    <cellStyle name="差 2 13" xfId="114"/>
-    <cellStyle name="常规 5 2 5" xfId="115"/>
-    <cellStyle name="差 2 14" xfId="116"/>
-    <cellStyle name="常规 5 2 6" xfId="117"/>
+    <cellStyle name="常规 5 2 5" xfId="114"/>
+    <cellStyle name="差 2 13" xfId="115"/>
+    <cellStyle name="常规 5 2 6" xfId="116"/>
+    <cellStyle name="差 2 14" xfId="117"/>
     <cellStyle name="差 2 15" xfId="118"/>
     <cellStyle name="差 2 2" xfId="119"/>
-    <cellStyle name="差 2 2 2" xfId="120"/>
-    <cellStyle name="差 2 4" xfId="121"/>
-    <cellStyle name="差 2 2 3" xfId="122"/>
-    <cellStyle name="差 2 5" xfId="123"/>
-    <cellStyle name="差 2 6" xfId="124"/>
-    <cellStyle name="差 2 2 4" xfId="125"/>
-    <cellStyle name="常规 13 2" xfId="126"/>
-    <cellStyle name="差 2 7" xfId="127"/>
-    <cellStyle name="差 2 2 5" xfId="128"/>
-    <cellStyle name="常规 13 3" xfId="129"/>
-    <cellStyle name="差 2 8" xfId="130"/>
-    <cellStyle name="差 2 2 6" xfId="131"/>
-    <cellStyle name="常规 13 4" xfId="132"/>
+    <cellStyle name="差 2 4" xfId="120"/>
+    <cellStyle name="差 2 2 2" xfId="121"/>
+    <cellStyle name="差 2 5" xfId="122"/>
+    <cellStyle name="差 2 2 3" xfId="123"/>
+    <cellStyle name="差 2 2 4" xfId="124"/>
+    <cellStyle name="常规 13 2" xfId="125"/>
+    <cellStyle name="差 2 6" xfId="126"/>
+    <cellStyle name="差 2 2 5" xfId="127"/>
+    <cellStyle name="常规 13 3" xfId="128"/>
+    <cellStyle name="差 2 7" xfId="129"/>
+    <cellStyle name="差 2 2 6" xfId="130"/>
+    <cellStyle name="常规 13 4" xfId="131"/>
+    <cellStyle name="差 2 8" xfId="132"/>
     <cellStyle name="差 2 2 8" xfId="133"/>
     <cellStyle name="常规 13 6" xfId="134"/>
     <cellStyle name="差 2 2 9" xfId="135"/>
     <cellStyle name="常规 13 7" xfId="136"/>
     <cellStyle name="差 2 3" xfId="137"/>
-    <cellStyle name="差 2 3 3" xfId="138"/>
-    <cellStyle name="差 3 5" xfId="139"/>
-    <cellStyle name="差 2 3 4" xfId="140"/>
-    <cellStyle name="差 3 6" xfId="141"/>
-    <cellStyle name="差 2 3 5" xfId="142"/>
-    <cellStyle name="差 3 7" xfId="143"/>
-    <cellStyle name="差 2 3 6" xfId="144"/>
+    <cellStyle name="差 3 5" xfId="138"/>
+    <cellStyle name="差 2 3 3" xfId="139"/>
+    <cellStyle name="差 3 6" xfId="140"/>
+    <cellStyle name="差 2 3 4" xfId="141"/>
+    <cellStyle name="差 3 7" xfId="142"/>
+    <cellStyle name="差 2 3 5" xfId="143"/>
+    <cellStyle name="好 2 2" xfId="144"/>
     <cellStyle name="差 3 8" xfId="145"/>
-    <cellStyle name="好 2 2" xfId="146"/>
-    <cellStyle name="差 2 3 7" xfId="147"/>
+    <cellStyle name="差 2 3 6" xfId="146"/>
+    <cellStyle name="好 2 3" xfId="147"/>
     <cellStyle name="差 3 9" xfId="148"/>
-    <cellStyle name="好 2 3" xfId="149"/>
-    <cellStyle name="差 2 3 8" xfId="150"/>
-    <cellStyle name="好 2 4" xfId="151"/>
-    <cellStyle name="差 2 4 2" xfId="152"/>
-    <cellStyle name="差 4 4" xfId="153"/>
-    <cellStyle name="差 2 4 3" xfId="154"/>
-    <cellStyle name="差 4 5" xfId="155"/>
-    <cellStyle name="差 2 4 4" xfId="156"/>
-    <cellStyle name="差 4 6" xfId="157"/>
-    <cellStyle name="差 4 7" xfId="158"/>
-    <cellStyle name="差 2 4 5" xfId="159"/>
-    <cellStyle name="常规 5 2 2 2 2" xfId="160"/>
-    <cellStyle name="差 2 4 6" xfId="161"/>
+    <cellStyle name="差 2 3 7" xfId="149"/>
+    <cellStyle name="好 2 4" xfId="150"/>
+    <cellStyle name="差 2 3 8" xfId="151"/>
+    <cellStyle name="差 4 4" xfId="152"/>
+    <cellStyle name="差 2 4 2" xfId="153"/>
+    <cellStyle name="差 4 5" xfId="154"/>
+    <cellStyle name="差 2 4 3" xfId="155"/>
+    <cellStyle name="差 4 6" xfId="156"/>
+    <cellStyle name="差 2 4 4" xfId="157"/>
+    <cellStyle name="差 2 4 5" xfId="158"/>
+    <cellStyle name="常规 5 2 2 2 2" xfId="159"/>
+    <cellStyle name="差 4 7" xfId="160"/>
+    <cellStyle name="好 3 2" xfId="161"/>
     <cellStyle name="差 4 8" xfId="162"/>
-    <cellStyle name="好 3 2" xfId="163"/>
-    <cellStyle name="差 2 4 7" xfId="164"/>
+    <cellStyle name="差 2 4 6" xfId="163"/>
+    <cellStyle name="好 3 3" xfId="164"/>
     <cellStyle name="差 4 9" xfId="165"/>
-    <cellStyle name="好 3 3" xfId="166"/>
-    <cellStyle name="差 2 4 8" xfId="167"/>
-    <cellStyle name="好 3 4" xfId="168"/>
-    <cellStyle name="差 2 5 2" xfId="169"/>
-    <cellStyle name="差 5 4" xfId="170"/>
-    <cellStyle name="差 2 5 3" xfId="171"/>
-    <cellStyle name="差 5 5" xfId="172"/>
-    <cellStyle name="差 2 5 4" xfId="173"/>
+    <cellStyle name="差 2 4 7" xfId="166"/>
+    <cellStyle name="好 3 4" xfId="167"/>
+    <cellStyle name="差 2 4 8" xfId="168"/>
+    <cellStyle name="差 5 4" xfId="169"/>
+    <cellStyle name="差 2 5 2" xfId="170"/>
+    <cellStyle name="差 5 5" xfId="171"/>
+    <cellStyle name="差 2 5 3" xfId="172"/>
+    <cellStyle name="常规 10" xfId="173"/>
     <cellStyle name="差 5 6" xfId="174"/>
-    <cellStyle name="常规 10" xfId="175"/>
-    <cellStyle name="差 2 5 5" xfId="176"/>
+    <cellStyle name="差 2 5 4" xfId="175"/>
+    <cellStyle name="常规 11" xfId="176"/>
     <cellStyle name="差 5 7" xfId="177"/>
-    <cellStyle name="常规 11" xfId="178"/>
-    <cellStyle name="差 2 5 6" xfId="179"/>
-    <cellStyle name="差 5 8" xfId="180"/>
-    <cellStyle name="常规 12" xfId="181"/>
-    <cellStyle name="好 4 2" xfId="182"/>
-    <cellStyle name="差 2 5 7" xfId="183"/>
-    <cellStyle name="差 5 9" xfId="184"/>
-    <cellStyle name="常规 13" xfId="185"/>
-    <cellStyle name="好 4 3" xfId="186"/>
-    <cellStyle name="差 2 5 8" xfId="187"/>
-    <cellStyle name="常规 14" xfId="188"/>
-    <cellStyle name="好 4 4" xfId="189"/>
-    <cellStyle name="差 2 6 2" xfId="190"/>
+    <cellStyle name="差 2 5 5" xfId="178"/>
+    <cellStyle name="常规 12" xfId="179"/>
+    <cellStyle name="好 4 2" xfId="180"/>
+    <cellStyle name="差 5 8" xfId="181"/>
+    <cellStyle name="差 2 5 6" xfId="182"/>
+    <cellStyle name="常规 13" xfId="183"/>
+    <cellStyle name="好 4 3" xfId="184"/>
+    <cellStyle name="差 5 9" xfId="185"/>
+    <cellStyle name="差 2 5 7" xfId="186"/>
+    <cellStyle name="常规 14" xfId="187"/>
+    <cellStyle name="好 4 4" xfId="188"/>
+    <cellStyle name="差 2 5 8" xfId="189"/>
+    <cellStyle name="常规 13 2 2" xfId="190"/>
     <cellStyle name="差 6 4" xfId="191"/>
-    <cellStyle name="常规 13 2 2" xfId="192"/>
-    <cellStyle name="差 2 6 3" xfId="193"/>
+    <cellStyle name="差 2 6 2" xfId="192"/>
+    <cellStyle name="常规 13 2 3" xfId="193"/>
     <cellStyle name="差 6 5" xfId="194"/>
-    <cellStyle name="常规 13 2 3" xfId="195"/>
-    <cellStyle name="差 6 6" xfId="196"/>
-    <cellStyle name="常规 13 2 4" xfId="197"/>
-    <cellStyle name="差 2 6 4" xfId="198"/>
-    <cellStyle name="常规 17 2" xfId="199"/>
-    <cellStyle name="差 2 6 5" xfId="200"/>
+    <cellStyle name="差 2 6 3" xfId="195"/>
+    <cellStyle name="差 2 6 4" xfId="196"/>
+    <cellStyle name="常规 17 2" xfId="197"/>
+    <cellStyle name="常规 13 2 4" xfId="198"/>
+    <cellStyle name="差 6 6" xfId="199"/>
+    <cellStyle name="常规 13 2 5" xfId="200"/>
     <cellStyle name="差 6 7" xfId="201"/>
-    <cellStyle name="常规 13 2 5" xfId="202"/>
-    <cellStyle name="差 2 6 6" xfId="203"/>
-    <cellStyle name="差 6 8" xfId="204"/>
-    <cellStyle name="常规 13 2 6" xfId="205"/>
-    <cellStyle name="好 5 2" xfId="206"/>
-    <cellStyle name="差 2 6 7" xfId="207"/>
-    <cellStyle name="差 6 9" xfId="208"/>
-    <cellStyle name="常规 13 2 7" xfId="209"/>
-    <cellStyle name="好 5 3" xfId="210"/>
-    <cellStyle name="差 2 6 8" xfId="211"/>
+    <cellStyle name="差 2 6 5" xfId="202"/>
+    <cellStyle name="好 5 2" xfId="203"/>
+    <cellStyle name="常规 13 2 6" xfId="204"/>
+    <cellStyle name="差 6 8" xfId="205"/>
+    <cellStyle name="差 2 6 6" xfId="206"/>
+    <cellStyle name="好 5 3" xfId="207"/>
+    <cellStyle name="常规 13 2 7" xfId="208"/>
+    <cellStyle name="差 6 9" xfId="209"/>
+    <cellStyle name="差 2 6 7" xfId="210"/>
+    <cellStyle name="好 5 4" xfId="211"/>
     <cellStyle name="常规 13 2 8" xfId="212"/>
-    <cellStyle name="好 5 4" xfId="213"/>
-    <cellStyle name="差 7 4" xfId="214"/>
+    <cellStyle name="差 2 6 8" xfId="213"/>
+    <cellStyle name="常规 5 2 2 4" xfId="214"/>
     <cellStyle name="差 2 7 2" xfId="215"/>
     <cellStyle name="常规 2 3 8" xfId="216"/>
-    <cellStyle name="常规 5 2 2 4" xfId="217"/>
-    <cellStyle name="差 7 5" xfId="218"/>
+    <cellStyle name="差 7 4" xfId="217"/>
+    <cellStyle name="常规 5 2 2 5" xfId="218"/>
     <cellStyle name="差 2 7 3" xfId="219"/>
     <cellStyle name="常规 2 3 9" xfId="220"/>
-    <cellStyle name="常规 5 2 2 5" xfId="221"/>
-    <cellStyle name="差 2 7 4" xfId="222"/>
+    <cellStyle name="差 7 5" xfId="221"/>
+    <cellStyle name="常规 5 2 2 6" xfId="222"/>
     <cellStyle name="差 7 6" xfId="223"/>
-    <cellStyle name="常规 5 2 2 6" xfId="224"/>
-    <cellStyle name="差 2 7 5" xfId="225"/>
-    <cellStyle name="差 7 7" xfId="226"/>
-    <cellStyle name="差 2 7 6" xfId="227"/>
+    <cellStyle name="差 2 7 4" xfId="224"/>
+    <cellStyle name="差 7 7" xfId="225"/>
+    <cellStyle name="差 2 7 5" xfId="226"/>
+    <cellStyle name="好 6 2" xfId="227"/>
     <cellStyle name="差 7 8" xfId="228"/>
-    <cellStyle name="好 6 2" xfId="229"/>
-    <cellStyle name="差 2 7 7" xfId="230"/>
+    <cellStyle name="差 2 7 6" xfId="229"/>
+    <cellStyle name="好 6 3" xfId="230"/>
     <cellStyle name="差 7 9" xfId="231"/>
-    <cellStyle name="好 6 3" xfId="232"/>
-    <cellStyle name="差 2 7 8" xfId="233"/>
-    <cellStyle name="好 6 4" xfId="234"/>
+    <cellStyle name="差 2 7 7" xfId="232"/>
+    <cellStyle name="好 6 4" xfId="233"/>
+    <cellStyle name="差 2 7 8" xfId="234"/>
     <cellStyle name="差 3" xfId="235"/>
     <cellStyle name="差 3 10" xfId="236"/>
     <cellStyle name="常规 17 2 8" xfId="237"/>
     <cellStyle name="差 3 11" xfId="238"/>
-    <cellStyle name="差 3 12" xfId="239"/>
-    <cellStyle name="差 4 2" xfId="240"/>
-    <cellStyle name="差 3 13" xfId="241"/>
-    <cellStyle name="差 4 3" xfId="242"/>
-    <cellStyle name="差 3 2 9" xfId="243"/>
-    <cellStyle name="常规 2 3 3" xfId="244"/>
+    <cellStyle name="差 4 2" xfId="239"/>
+    <cellStyle name="差 3 12" xfId="240"/>
+    <cellStyle name="差 4 3" xfId="241"/>
+    <cellStyle name="差 3 13" xfId="242"/>
+    <cellStyle name="常规 2 3 3" xfId="243"/>
+    <cellStyle name="差 3 2 9" xfId="244"/>
     <cellStyle name="差 4" xfId="245"/>
     <cellStyle name="差 5" xfId="246"/>
     <cellStyle name="差 5 2" xfId="247"/>
     <cellStyle name="差 5 3" xfId="248"/>
     <cellStyle name="差 6 2" xfId="249"/>
     <cellStyle name="差 6 3" xfId="250"/>
-    <cellStyle name="差 7 2" xfId="251"/>
+    <cellStyle name="常规 5 2 2 2" xfId="251"/>
     <cellStyle name="常规 2 3 6" xfId="252"/>
-    <cellStyle name="常规 5 2 2 2" xfId="253"/>
-    <cellStyle name="差 7 3" xfId="254"/>
+    <cellStyle name="差 7 2" xfId="253"/>
+    <cellStyle name="常规 5 2 2 3" xfId="254"/>
     <cellStyle name="常规 2 3 7" xfId="255"/>
-    <cellStyle name="常规 5 2 2 3" xfId="256"/>
-    <cellStyle name="差 8 2" xfId="257"/>
-    <cellStyle name="常规 2 4 6" xfId="258"/>
+    <cellStyle name="差 7 3" xfId="256"/>
+    <cellStyle name="常规 2 4 6" xfId="257"/>
+    <cellStyle name="差 8 2" xfId="258"/>
     <cellStyle name="差 8 3" xfId="259"/>
     <cellStyle name="差 8 4" xfId="260"/>
     <cellStyle name="差 8 5" xfId="261"/>
     <cellStyle name="差 8 6" xfId="262"/>
     <cellStyle name="差 8 7" xfId="263"/>
-    <cellStyle name="差 8 8" xfId="264"/>
-    <cellStyle name="好 7 2" xfId="265"/>
-    <cellStyle name="差 8 9" xfId="266"/>
-    <cellStyle name="好 7 3" xfId="267"/>
+    <cellStyle name="好 7 2" xfId="264"/>
+    <cellStyle name="差 8 8" xfId="265"/>
+    <cellStyle name="好 7 3" xfId="266"/>
+    <cellStyle name="差 8 9" xfId="267"/>
     <cellStyle name="差 9 2" xfId="268"/>
     <cellStyle name="差 9 3" xfId="269"/>
     <cellStyle name="差 9 4" xfId="270"/>
     <cellStyle name="差 9 5" xfId="271"/>
     <cellStyle name="差 9 6" xfId="272"/>
     <cellStyle name="差 9 7" xfId="273"/>
-    <cellStyle name="差 9 8" xfId="274"/>
-    <cellStyle name="好 8 2" xfId="275"/>
-    <cellStyle name="常规 11 2" xfId="276"/>
-    <cellStyle name="常规 5 5 2 4" xfId="277"/>
+    <cellStyle name="好 8 2" xfId="274"/>
+    <cellStyle name="差 9 8" xfId="275"/>
+    <cellStyle name="常规 5 5 2 4" xfId="276"/>
+    <cellStyle name="常规 11 2" xfId="277"/>
     <cellStyle name="常规 11 2 2" xfId="278"/>
     <cellStyle name="常规 11 2 2 2" xfId="279"/>
     <cellStyle name="常规 11 2 2 3" xfId="280"/>
     <cellStyle name="常规 11 2 2 4" xfId="281"/>
     <cellStyle name="常规 11 2 2 5" xfId="282"/>
     <cellStyle name="常规 11 2 2 6" xfId="283"/>
-    <cellStyle name="常规 11 2 2 7" xfId="284"/>
-    <cellStyle name="常规 12 2" xfId="285"/>
-    <cellStyle name="常规 11 2 2 8" xfId="286"/>
-    <cellStyle name="常规 12 3" xfId="287"/>
-    <cellStyle name="常规 11 3" xfId="288"/>
+    <cellStyle name="常规 12 2" xfId="284"/>
+    <cellStyle name="常规 11 2 2 7" xfId="285"/>
+    <cellStyle name="常规 12 3" xfId="286"/>
+    <cellStyle name="常规 11 2 2 8" xfId="287"/>
+    <cellStyle name="常规 5 5 2 5" xfId="288"/>
     <cellStyle name="常规 2 3 2 2" xfId="289"/>
-    <cellStyle name="常规 5 5 2 5" xfId="290"/>
-    <cellStyle name="常规 11 4" xfId="291"/>
+    <cellStyle name="常规 11 3" xfId="290"/>
+    <cellStyle name="常规 5 5 2 6" xfId="291"/>
     <cellStyle name="常规 2 3 2 3" xfId="292"/>
-    <cellStyle name="常规 5 5 2 6" xfId="293"/>
-    <cellStyle name="常规 11 5" xfId="294"/>
+    <cellStyle name="常规 11 4" xfId="293"/>
+    <cellStyle name="常规 5 5 2 7" xfId="294"/>
     <cellStyle name="常规 2 3 2 4" xfId="295"/>
-    <cellStyle name="常规 5 5 2 7" xfId="296"/>
-    <cellStyle name="常规 11 6" xfId="297"/>
+    <cellStyle name="常规 11 5" xfId="296"/>
+    <cellStyle name="常规 5 5 2 8" xfId="297"/>
     <cellStyle name="常规 2 3 2 5" xfId="298"/>
-    <cellStyle name="常规 5 5 2 8" xfId="299"/>
-    <cellStyle name="常规 12 2 2 2" xfId="300"/>
+    <cellStyle name="常规 11 6" xfId="299"/>
+    <cellStyle name="常规 5 3 2 3" xfId="300"/>
     <cellStyle name="常规 5" xfId="301"/>
-    <cellStyle name="常规 5 3 2 3" xfId="302"/>
-    <cellStyle name="常规 5 3 2 5" xfId="303"/>
+    <cellStyle name="常规 12 2 2 2" xfId="302"/>
+    <cellStyle name="常规 7" xfId="303"/>
     <cellStyle name="常规 12 2 2 4" xfId="304"/>
     <cellStyle name="常规 6 14" xfId="305"/>
-    <cellStyle name="常规 7" xfId="306"/>
-    <cellStyle name="常规 5 3 2 6" xfId="307"/>
+    <cellStyle name="常规 5 3 2 5" xfId="306"/>
+    <cellStyle name="常规 8" xfId="307"/>
     <cellStyle name="常规 12 2 2 5" xfId="308"/>
     <cellStyle name="常规 6 15" xfId="309"/>
-    <cellStyle name="常规 8" xfId="310"/>
-    <cellStyle name="常规 5 3 2 7" xfId="311"/>
+    <cellStyle name="常规 5 3 2 6" xfId="310"/>
+    <cellStyle name="常规 9" xfId="311"/>
     <cellStyle name="常规 12 2 2 6" xfId="312"/>
     <cellStyle name="常规 6 16" xfId="313"/>
-    <cellStyle name="常规 9" xfId="314"/>
-    <cellStyle name="常规 5 3 2 8" xfId="315"/>
-    <cellStyle name="常规 12 2 2 7" xfId="316"/>
-    <cellStyle name="常规 6 17" xfId="317"/>
+    <cellStyle name="常规 5 3 2 7" xfId="314"/>
+    <cellStyle name="常规 12 2 2 7" xfId="315"/>
+    <cellStyle name="常规 6 17" xfId="316"/>
+    <cellStyle name="常规 5 3 2 8" xfId="317"/>
     <cellStyle name="常规 12 2 2 8" xfId="318"/>
     <cellStyle name="常规 6 18" xfId="319"/>
     <cellStyle name="常规 12 4" xfId="320"/>
@@ -11602,21 +11602,21 @@
     <cellStyle name="输入 2" xfId="374"/>
     <cellStyle name="常规 2 9" xfId="375"/>
     <cellStyle name="输入 3" xfId="376"/>
-    <cellStyle name="常规 3 10" xfId="377"/>
-    <cellStyle name="常规 6 6" xfId="378"/>
-    <cellStyle name="常规 3 11" xfId="379"/>
+    <cellStyle name="常规 6 6" xfId="377"/>
+    <cellStyle name="常规 3 10" xfId="378"/>
+    <cellStyle name="常规 9 2 2" xfId="379"/>
     <cellStyle name="常规 6 7" xfId="380"/>
-    <cellStyle name="常规 9 2 2" xfId="381"/>
-    <cellStyle name="常规 3 12" xfId="382"/>
+    <cellStyle name="常规 3 11" xfId="381"/>
+    <cellStyle name="常规 9 2 3" xfId="382"/>
     <cellStyle name="常规 6 8" xfId="383"/>
-    <cellStyle name="常规 9 2 3" xfId="384"/>
-    <cellStyle name="常规 3 13" xfId="385"/>
+    <cellStyle name="常规 3 12" xfId="384"/>
+    <cellStyle name="常规 9 2 4" xfId="385"/>
     <cellStyle name="常规 6 9" xfId="386"/>
-    <cellStyle name="常规 9 2 4" xfId="387"/>
-    <cellStyle name="常规 3 15" xfId="388"/>
-    <cellStyle name="常规 9 2 6" xfId="389"/>
-    <cellStyle name="常规 3 16" xfId="390"/>
-    <cellStyle name="常规 9 2 7" xfId="391"/>
+    <cellStyle name="常规 3 13" xfId="387"/>
+    <cellStyle name="常规 9 2 6" xfId="388"/>
+    <cellStyle name="常规 3 15" xfId="389"/>
+    <cellStyle name="常规 9 2 7" xfId="390"/>
+    <cellStyle name="常规 3 16" xfId="391"/>
     <cellStyle name="常规 3 2" xfId="392"/>
     <cellStyle name="好 11 2" xfId="393"/>
     <cellStyle name="常规 3 3" xfId="394"/>
@@ -11632,11 +11632,11 @@
     <cellStyle name="常规 3 8" xfId="404"/>
     <cellStyle name="好 11 8" xfId="405"/>
     <cellStyle name="常规 3 9" xfId="406"/>
-    <cellStyle name="常规 4" xfId="407"/>
+    <cellStyle name="常规 6 11" xfId="407"/>
     <cellStyle name="常规 5 3 2 2" xfId="408"/>
-    <cellStyle name="常规 6 11" xfId="409"/>
-    <cellStyle name="常规 5 10" xfId="410"/>
-    <cellStyle name="好 5 8" xfId="411"/>
+    <cellStyle name="常规 4" xfId="409"/>
+    <cellStyle name="好 5 8" xfId="410"/>
+    <cellStyle name="常规 5 10" xfId="411"/>
     <cellStyle name="常规 5 2 2 2 2 2" xfId="412"/>
     <cellStyle name="常规 5 4 2 4" xfId="413"/>
     <cellStyle name="常规 5 2 2 2 2 3" xfId="414"/>
@@ -11647,23 +11647,23 @@
     <cellStyle name="常规 5 3 2" xfId="419"/>
     <cellStyle name="常规 5 4" xfId="420"/>
     <cellStyle name="常规 5 4 2" xfId="421"/>
-    <cellStyle name="常规 5 4 2 2" xfId="422"/>
-    <cellStyle name="常规 5 8" xfId="423"/>
-    <cellStyle name="常规 5 4 2 3" xfId="424"/>
-    <cellStyle name="常规 5 9" xfId="425"/>
+    <cellStyle name="常规 5 8" xfId="422"/>
+    <cellStyle name="常规 5 4 2 2" xfId="423"/>
+    <cellStyle name="常规 5 9" xfId="424"/>
+    <cellStyle name="常规 5 4 2 3" xfId="425"/>
     <cellStyle name="常规 5 5" xfId="426"/>
     <cellStyle name="常规 5 5 2" xfId="427"/>
     <cellStyle name="常规 5 5 2 2" xfId="428"/>
     <cellStyle name="常规 5 5 2 3" xfId="429"/>
     <cellStyle name="常规 5 6" xfId="430"/>
     <cellStyle name="常规 5 7" xfId="431"/>
-    <cellStyle name="常规 6 10" xfId="432"/>
-    <cellStyle name="好 11" xfId="433"/>
+    <cellStyle name="好 11" xfId="432"/>
+    <cellStyle name="常规 6 10" xfId="433"/>
     <cellStyle name="常规 6 19" xfId="434"/>
-    <cellStyle name="常规 6 2" xfId="435"/>
-    <cellStyle name="常规 7 18" xfId="436"/>
-    <cellStyle name="常规 6 3" xfId="437"/>
-    <cellStyle name="常规 7 19" xfId="438"/>
+    <cellStyle name="常规 7 18" xfId="435"/>
+    <cellStyle name="常规 6 2" xfId="436"/>
+    <cellStyle name="常规 7 19" xfId="437"/>
+    <cellStyle name="常规 6 3" xfId="438"/>
     <cellStyle name="常规 6 4" xfId="439"/>
     <cellStyle name="常规 7 10" xfId="440"/>
     <cellStyle name="常规 7 11" xfId="441"/>
@@ -11731,10 +11731,10 @@
     <cellStyle name="好 9 6" xfId="503"/>
     <cellStyle name="好 9 7" xfId="504"/>
     <cellStyle name="好 9 8" xfId="505"/>
-    <cellStyle name="输入 10" xfId="506"/>
-    <cellStyle name="输入 5" xfId="507"/>
-    <cellStyle name="输入 11" xfId="508"/>
-    <cellStyle name="输入 6" xfId="509"/>
+    <cellStyle name="输入 5" xfId="506"/>
+    <cellStyle name="输入 10" xfId="507"/>
+    <cellStyle name="输入 6" xfId="508"/>
+    <cellStyle name="输入 11" xfId="509"/>
     <cellStyle name="输入 4" xfId="510"/>
     <cellStyle name="输入 7" xfId="511"/>
     <cellStyle name="输入 8" xfId="512"/>
@@ -12090,7 +12090,7 @@
   <dimension ref="A1:AY524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C479" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -12129,7 +12129,7 @@
     <col min="31" max="16384" width="9.13888888888889" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="62" customHeight="1" spans="1:32">
+    <row r="1" ht="136" customHeight="1" spans="1:32">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
